--- a/biology/Botanique/Malanea/Malanea.xlsx
+++ b/biology/Botanique/Malanea/Malanea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Malanea est un genre néotropical d'arbustes et de lianee, appartenant à la famille des Rubiaceae, comportant environ 47 espèces, et dont l'espèce type est Malanea sarmentosa Aubl..
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Malanea regroupe des lianes parfois volubiles ou des arbustes, terrestres, non armés. 
 Les feuilles sont opposées, pétiolées, à nervation linéolée.
@@ -525,7 +539,7 @@
 L'ovaire a 2 loges.
 Les ovules sont solitaires dans chaque locule, pendants à partir de l'apex de la loge.
 Le fruit est drupacé, ellipsoïde à cylindrique ou fusiforme, charnu, rouge à pourpre ou noir. Les pyrènes sont 1 ou 2, 1- ou 2-loculaires, lisses à striés longitudinalement.
-Les graines sont cylindriques, petites[2].
+Les graines sont cylindriques, petites.
 </t>
         </is>
       </c>
@@ -554,9 +568,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre le genre Malanea du sud de l'Amérique centrale, au Brésil en passant par les Antilles, la Colombie, le Venezuela, Trinidad et Tobago, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, et le Bolivie[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre le genre Malanea du sud de l'Amérique centrale, au Brésil en passant par les Antilles, la Colombie, le Venezuela, Trinidad et Tobago, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, et le Bolivie.
 </t>
         </is>
       </c>
@@ -585,9 +601,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[3] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « MALANEA. (Tabula 41.)
 CAL. Perianthtum monophyllum, quadridentatum.
 COR. monopetala ; tubus breviſſimus, diſco ſuprà germen infertus ; limbus quadrifidus ; lobis acutis, villoſis.
@@ -623,9 +641,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (23 avril 2024)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (23 avril 2024) :
 Malanea auyantepuiensis Steyerm.
 Malanea boliviana Standl.
 Malanea campylocarpa C.M.Taylor
